--- a/public/preprocessing/@raffi_nagita17.xlsx
+++ b/public/preprocessing/@raffi_nagita17.xlsx
@@ -475,10 +475,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10062</v>
+        <v>18144</v>
       </c>
       <c r="C2" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -511,10 +511,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10063</v>
+        <v>18145</v>
       </c>
       <c r="C3" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -547,10 +547,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10064</v>
+        <v>18146</v>
       </c>
       <c r="C4" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -583,10 +583,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10065</v>
+        <v>18147</v>
       </c>
       <c r="C5" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -615,10 +615,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10066</v>
+        <v>18148</v>
       </c>
       <c r="C6" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -651,10 +651,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10067</v>
+        <v>18149</v>
       </c>
       <c r="C7" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -687,10 +687,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10068</v>
+        <v>18150</v>
       </c>
       <c r="C8" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -723,10 +723,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10069</v>
+        <v>18151</v>
       </c>
       <c r="C9" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -759,10 +759,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10070</v>
+        <v>18152</v>
       </c>
       <c r="C10" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -795,10 +795,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10071</v>
+        <v>18153</v>
       </c>
       <c r="C11" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -827,10 +827,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10072</v>
+        <v>18154</v>
       </c>
       <c r="C12" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -863,10 +863,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10073</v>
+        <v>18155</v>
       </c>
       <c r="C13" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -899,10 +899,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10074</v>
+        <v>18156</v>
       </c>
       <c r="C14" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -935,10 +935,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10075</v>
+        <v>18157</v>
       </c>
       <c r="C15" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -971,10 +971,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10076</v>
+        <v>18158</v>
       </c>
       <c r="C16" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -1003,10 +1003,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10077</v>
+        <v>18159</v>
       </c>
       <c r="C17" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1039,10 +1039,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>10078</v>
+        <v>18160</v>
       </c>
       <c r="C18" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1075,10 +1075,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10079</v>
+        <v>18161</v>
       </c>
       <c r="C19" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1111,10 +1111,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10080</v>
+        <v>18162</v>
       </c>
       <c r="C20" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1147,10 +1147,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10081</v>
+        <v>18163</v>
       </c>
       <c r="C21" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1183,10 +1183,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>10082</v>
+        <v>18164</v>
       </c>
       <c r="C22" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10083</v>
+        <v>18165</v>
       </c>
       <c r="C23" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1255,10 +1255,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10084</v>
+        <v>18166</v>
       </c>
       <c r="C24" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1291,10 +1291,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10085</v>
+        <v>18167</v>
       </c>
       <c r="C25" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1327,10 +1327,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10086</v>
+        <v>18168</v>
       </c>
       <c r="C26" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1363,10 +1363,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10087</v>
+        <v>18169</v>
       </c>
       <c r="C27" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1399,10 +1399,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10088</v>
+        <v>18170</v>
       </c>
       <c r="C28" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1435,10 +1435,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>10089</v>
+        <v>18171</v>
       </c>
       <c r="C29" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1471,10 +1471,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10090</v>
+        <v>18172</v>
       </c>
       <c r="C30" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1507,10 +1507,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10091</v>
+        <v>18173</v>
       </c>
       <c r="C31" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1543,10 +1543,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>10092</v>
+        <v>18174</v>
       </c>
       <c r="C32" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1579,10 +1579,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10093</v>
+        <v>18175</v>
       </c>
       <c r="C33" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1615,10 +1615,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10094</v>
+        <v>18176</v>
       </c>
       <c r="C34" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1651,10 +1651,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>10095</v>
+        <v>18177</v>
       </c>
       <c r="C35" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10096</v>
+        <v>18178</v>
       </c>
       <c r="C36" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1723,10 +1723,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>10097</v>
+        <v>18179</v>
       </c>
       <c r="C37" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1759,10 +1759,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>10098</v>
+        <v>18180</v>
       </c>
       <c r="C38" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1795,10 +1795,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>10099</v>
+        <v>18181</v>
       </c>
       <c r="C39" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1831,10 +1831,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10100</v>
+        <v>18182</v>
       </c>
       <c r="C40" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1867,10 +1867,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>10101</v>
+        <v>18183</v>
       </c>
       <c r="C41" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1903,10 +1903,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10102</v>
+        <v>18184</v>
       </c>
       <c r="C42" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1939,10 +1939,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>10103</v>
+        <v>18185</v>
       </c>
       <c r="C43" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1975,10 +1975,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10104</v>
+        <v>18186</v>
       </c>
       <c r="C44" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2011,10 +2011,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10105</v>
+        <v>18187</v>
       </c>
       <c r="C45" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2047,10 +2047,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>10106</v>
+        <v>18188</v>
       </c>
       <c r="C46" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2083,10 +2083,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>10107</v>
+        <v>18189</v>
       </c>
       <c r="C47" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2119,10 +2119,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>10108</v>
+        <v>18190</v>
       </c>
       <c r="C48" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10109</v>
+        <v>18191</v>
       </c>
       <c r="C49" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2191,10 +2191,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>10110</v>
+        <v>18192</v>
       </c>
       <c r="C50" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2227,10 +2227,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>10111</v>
+        <v>18193</v>
       </c>
       <c r="C51" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2263,10 +2263,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>10112</v>
+        <v>18194</v>
       </c>
       <c r="C52" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
@@ -2295,10 +2295,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>10113</v>
+        <v>18195</v>
       </c>
       <c r="C53" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2331,10 +2331,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>10114</v>
+        <v>18196</v>
       </c>
       <c r="C54" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2367,10 +2367,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>10115</v>
+        <v>18197</v>
       </c>
       <c r="C55" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2403,10 +2403,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>10116</v>
+        <v>18198</v>
       </c>
       <c r="C56" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2439,10 +2439,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>10117</v>
+        <v>18199</v>
       </c>
       <c r="C57" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
@@ -2471,10 +2471,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>10118</v>
+        <v>18200</v>
       </c>
       <c r="C58" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
@@ -2503,10 +2503,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10119</v>
+        <v>18201</v>
       </c>
       <c r="C59" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2539,10 +2539,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>10120</v>
+        <v>18202</v>
       </c>
       <c r="C60" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2575,10 +2575,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>10121</v>
+        <v>18203</v>
       </c>
       <c r="C61" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
@@ -2607,10 +2607,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>10122</v>
+        <v>18204</v>
       </c>
       <c r="C62" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
@@ -2639,10 +2639,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>10123</v>
+        <v>18205</v>
       </c>
       <c r="C63" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2675,10 +2675,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10124</v>
+        <v>18206</v>
       </c>
       <c r="C64" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2711,10 +2711,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>10125</v>
+        <v>18207</v>
       </c>
       <c r="C65" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
@@ -2743,10 +2743,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>10126</v>
+        <v>18208</v>
       </c>
       <c r="C66" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2779,10 +2779,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>10127</v>
+        <v>18209</v>
       </c>
       <c r="C67" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2815,10 +2815,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>10128</v>
+        <v>18210</v>
       </c>
       <c r="C68" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2851,10 +2851,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10129</v>
+        <v>18211</v>
       </c>
       <c r="C69" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2887,10 +2887,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>10130</v>
+        <v>18212</v>
       </c>
       <c r="C70" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2923,10 +2923,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>10131</v>
+        <v>18213</v>
       </c>
       <c r="C71" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2959,10 +2959,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10132</v>
+        <v>18214</v>
       </c>
       <c r="C72" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2995,10 +2995,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10133</v>
+        <v>18215</v>
       </c>
       <c r="C73" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3031,10 +3031,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10134</v>
+        <v>18216</v>
       </c>
       <c r="C74" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3067,10 +3067,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10135</v>
+        <v>18217</v>
       </c>
       <c r="C75" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3103,10 +3103,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10136</v>
+        <v>18218</v>
       </c>
       <c r="C76" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3139,10 +3139,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10137</v>
+        <v>18219</v>
       </c>
       <c r="C77" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3175,10 +3175,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10138</v>
+        <v>18220</v>
       </c>
       <c r="C78" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3211,10 +3211,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10139</v>
+        <v>18221</v>
       </c>
       <c r="C79" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3247,10 +3247,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>10140</v>
+        <v>18222</v>
       </c>
       <c r="C80" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3283,10 +3283,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>10141</v>
+        <v>18223</v>
       </c>
       <c r="C81" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3319,10 +3319,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>10142</v>
+        <v>18224</v>
       </c>
       <c r="C82" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3355,10 +3355,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>10143</v>
+        <v>18225</v>
       </c>
       <c r="C83" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3391,10 +3391,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>10144</v>
+        <v>18226</v>
       </c>
       <c r="C84" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3427,10 +3427,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>10145</v>
+        <v>18227</v>
       </c>
       <c r="C85" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3463,10 +3463,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10146</v>
+        <v>18228</v>
       </c>
       <c r="C86" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3499,10 +3499,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10147</v>
+        <v>18229</v>
       </c>
       <c r="C87" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3535,10 +3535,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>10148</v>
+        <v>18230</v>
       </c>
       <c r="C88" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
@@ -3567,10 +3567,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10149</v>
+        <v>18231</v>
       </c>
       <c r="C89" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3603,10 +3603,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>10150</v>
+        <v>18232</v>
       </c>
       <c r="C90" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3639,10 +3639,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>10151</v>
+        <v>18233</v>
       </c>
       <c r="C91" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3675,10 +3675,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>10152</v>
+        <v>18234</v>
       </c>
       <c r="C92" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3711,10 +3711,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>10153</v>
+        <v>18235</v>
       </c>
       <c r="C93" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3747,10 +3747,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>10154</v>
+        <v>18236</v>
       </c>
       <c r="C94" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3783,10 +3783,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>10155</v>
+        <v>18237</v>
       </c>
       <c r="C95" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
@@ -3815,10 +3815,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>10156</v>
+        <v>18238</v>
       </c>
       <c r="C96" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3851,10 +3851,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>10157</v>
+        <v>18239</v>
       </c>
       <c r="C97" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3887,10 +3887,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>10158</v>
+        <v>18240</v>
       </c>
       <c r="C98" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3923,10 +3923,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>10159</v>
+        <v>18241</v>
       </c>
       <c r="C99" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3959,10 +3959,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>10160</v>
+        <v>18242</v>
       </c>
       <c r="C100" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
